--- a/back-end-loto-app/output/excelBuild.xlsx
+++ b/back-end-loto-app/output/excelBuild.xlsx
@@ -397,61 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>9</v>
-      </c>
-      <c r="J1">
-        <v>10</v>
-      </c>
-      <c r="K1">
-        <v>11</v>
-      </c>
-      <c r="L1">
-        <v>12</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>14</v>
-      </c>
-      <c r="O1">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/back-end-loto-app/output/excelBuild.xlsx
+++ b/back-end-loto-app/output/excelBuild.xlsx
@@ -397,13 +397,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/back-end-loto-app/output/excelBuild.xlsx
+++ b/back-end-loto-app/output/excelBuild.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,10 +430,75 @@
       <c r="I1">
         <v>9</v>
       </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>14</v>
+      </c>
+      <c r="O2">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:O2"/>
   </ignoredErrors>
 </worksheet>
 </file>